--- a/resources/subjects.xlsx
+++ b/resources/subjects.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhosseinrahimi/Pictures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/PycharmProjects/uctp/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2A4ACF8B-7AB1-B44A-89E8-FF7E3A035E2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16460" xr2:uid="{E91DBCC2-8D1A-CE41-9831-696CC7489421}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>mabani_computer</t>
   </si>
@@ -81,66 +79,12 @@
   </si>
   <si>
     <t>Compiler</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>DataBase</t>
-  </si>
-  <si>
-    <t>Ehtemal1</t>
-  </si>
-  <si>
-    <t>Jabre_Khati</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Zaban_Takhasosi</t>
-  </si>
-  <si>
-    <t>Aze Paygah</t>
-  </si>
-  <si>
-    <t>Mantegh</t>
-  </si>
-  <si>
-    <t>Analise_Riyazi</t>
-  </si>
-  <si>
-    <t>Nazariye_Mohasebe</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Memari_Computer</t>
-  </si>
-  <si>
-    <t>BehineSazi_Khati</t>
-  </si>
-  <si>
-    <t>Osule_Tarahi_Narm_Afzar</t>
-  </si>
-  <si>
-    <t>Neural_Network</t>
-  </si>
-  <si>
-    <t>image_processing</t>
-  </si>
-  <si>
-    <t>Exper_System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -151,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,10 +129,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -240,9 +187,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -270,14 +217,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -305,6 +269,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,16 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152C68F7-6242-014E-8A52-C21B9492F870}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AJ1"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,60 +500,6 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
